--- a/Team03Report.xlsx
+++ b/Team03Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarita Hedaya\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zildj\Documents\!School\6th Semester\Agile Methods\SSW555_Spring19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4780CB42-1A34-4C5A-A90A-17944B07101F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F280A875-6904-4B84-A060-9D9F3CD9105B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7550" tabRatio="500" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4180" yWindow="4180" windowWidth="24000" windowHeight="12760" tabRatio="500" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="232">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -707,30 +707,9 @@
     <t>hzSprint1.py</t>
   </si>
   <si>
-    <t>divorceBeforeDeath</t>
-  </si>
-  <si>
-    <t>test_US06.py</t>
-  </si>
-  <si>
-    <t>39-49</t>
-  </si>
-  <si>
     <t>marriageAfterAge</t>
   </si>
   <si>
-    <t>5-12</t>
-  </si>
-  <si>
-    <t>15-27</t>
-  </si>
-  <si>
-    <t>test_US10.py</t>
-  </si>
-  <si>
-    <t>51-61</t>
-  </si>
-  <si>
     <t>Object-Oriented design</t>
   </si>
   <si>
@@ -755,16 +734,40 @@
     <t>mainUnitTest.py</t>
   </si>
   <si>
-    <t>test_US01.py</t>
-  </si>
-  <si>
-    <t>test_US07.py</t>
-  </si>
-  <si>
-    <t>31-52</t>
-  </si>
-  <si>
-    <t>54-69</t>
+    <t>hzUserStories.py</t>
+  </si>
+  <si>
+    <t>divorceBeforeDeath, yearDifference</t>
+  </si>
+  <si>
+    <t>test_US01</t>
+  </si>
+  <si>
+    <t>test_US06</t>
+  </si>
+  <si>
+    <t>test_US07</t>
+  </si>
+  <si>
+    <t>test_US10</t>
+  </si>
+  <si>
+    <t>7-19</t>
+  </si>
+  <si>
+    <t>21-29</t>
+  </si>
+  <si>
+    <t>87-97</t>
+  </si>
+  <si>
+    <t>70-84</t>
+  </si>
+  <si>
+    <t>58-68</t>
+  </si>
+  <si>
+    <t>11-32</t>
   </si>
 </sst>
 </file>
@@ -2912,7 +2915,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2932,7 +2935,7 @@
     <col min="14" max="14" width="1.84375" style="15" customWidth="1"/>
     <col min="15" max="15" width="10.15234375" style="15" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.4609375" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.15234375" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.15234375" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,22 +3014,22 @@
         <v>1</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="L2" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="P2" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="M2" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>229</v>
+      <c r="Q2" s="22" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,22 +3141,22 @@
         <v>1</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>211</v>
+        <v>220</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>221</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="O7" s="21" t="s">
-        <v>210</v>
+        <v>226</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>219</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q7" s="21" t="s">
-        <v>213</v>
+        <v>223</v>
+      </c>
+      <c r="Q7" s="22" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,22 +3188,22 @@
         <v>1</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="P8" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q8" s="15" t="s">
-        <v>230</v>
+        <v>219</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,19 +3238,19 @@
         <v>210</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="O9" s="21" t="s">
-        <v>210</v>
+        <v>227</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>219</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q9" s="21" t="s">
-        <v>218</v>
+        <v>225</v>
+      </c>
+      <c r="Q9" s="22" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,7 +3268,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B14" s="23" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
@@ -3275,7 +3278,7 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="23" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
